--- a/Macroeconomics/Indicators.xlsx
+++ b/Macroeconomics/Indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="USSLIND" localSheetId="2">LEI!$A$2:$B$425</definedName>
     <definedName name="VIX" localSheetId="3">VIX!$A$2:$G$330</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,7 +44,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="^GSPC" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/alexdietsche/Downloads/^GSPC.csv" thousands="'" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/alexdietsche/Downloads/^GSPC.csv" thousands="'" comma="1">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -57,7 +57,7 @@
     </textPr>
   </connection>
   <connection id="2" name="^VIX" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/alexdietsche/Downloads/^VIX.csv" thousands="'" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/alexdietsche/Downloads/^VIX.csv" thousands="'" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -78,7 +78,7 @@
     </textPr>
   </connection>
   <connection id="4" name="USSLIND" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/alexdietsche/Downloads/USSLIND.csv" thousands="'" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/alexdietsche/Downloads/USSLIND.csv" thousands="'" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -1751,8 +1751,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1786,9 +1786,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -7179,11 +7179,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1011847280"/>
-        <c:axId val="1032256240"/>
+        <c:axId val="-2053821600"/>
+        <c:axId val="-2053818768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1011847280"/>
+        <c:axId val="-2053821600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7226,14 +7226,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1032256240"/>
+        <c:crossAx val="-2053818768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1032256240"/>
+        <c:axId val="-2053818768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7283,7 +7283,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1011847280"/>
+        <c:crossAx val="-2053821600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9444,11 +9444,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1087048688"/>
-        <c:axId val="922247968"/>
+        <c:axId val="-2054623440"/>
+        <c:axId val="-2054620688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1087048688"/>
+        <c:axId val="-2054623440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9491,14 +9491,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="922247968"/>
+        <c:crossAx val="-2054620688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="922247968"/>
+        <c:axId val="-2054620688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9548,7 +9548,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1087048688"/>
+        <c:crossAx val="-2054623440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11666,11 +11666,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1009351936"/>
-        <c:axId val="1141922176"/>
+        <c:axId val="-2089645984"/>
+        <c:axId val="-2089658048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1009351936"/>
+        <c:axId val="-2089645984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11713,14 +11713,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1141922176"/>
+        <c:crossAx val="-2089658048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1141922176"/>
+        <c:axId val="-2089658048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11770,7 +11770,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1009351936"/>
+        <c:crossAx val="-2089645984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13868,7 +13868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G922"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -23459,7 +23459,7 @@
         <v>100.6994</v>
       </c>
       <c r="F390">
-        <f t="shared" ref="F390:F453" si="13">C390*10</f>
+        <f t="shared" ref="F390:F427" si="13">C390*10</f>
         <v>19.2</v>
       </c>
       <c r="G390" s="3">
@@ -28914,7 +28914,7 @@
   <dimension ref="A1:J810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J792"/>
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29544,7 +29544,7 @@
         <v>2054.2823110769232</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" ref="J10:J73" si="2">100*(E21/I21-1)</f>
+        <f t="shared" ref="J21:J73" si="2">100*(E21/I21-1)</f>
         <v>1.2718602882473284</v>
       </c>
     </row>
@@ -53011,7 +53011,7 @@
         <v>24.076153999999995</v>
       </c>
       <c r="J778" s="2">
-        <f t="shared" ref="J778:J804" si="26">100*(E778/I778-1)</f>
+        <f t="shared" ref="J778:J792" si="26">100*(E778/I778-1)</f>
         <v>1.8435087265183725</v>
       </c>
     </row>
@@ -57326,8 +57326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G330"/>
   <sheetViews>
-    <sheetView topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E330"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64926,7 +64926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H522"/>
   <sheetViews>
-    <sheetView topLeftCell="A553" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G562"/>
     </sheetView>
   </sheetViews>
